--- a/resources/templates/reports/dep_report.xlsx
+++ b/resources/templates/reports/dep_report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blackharold\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20911894\Desktop\Новая папка\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-13650" yWindow="11540" windowWidth="13280" windowHeight="15500"/>
+    <workbookView xWindow="-13650" yWindow="11535" windowWidth="13275" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="DEP" sheetId="3" r:id="rId1"/>
@@ -58,18 +58,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1F497D"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -87,19 +93,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -111,10 +104,25 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -122,8 +130,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -132,18 +142,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,48 +442,48 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="37.6328125" customWidth="1"/>
-    <col min="5" max="5" width="90.6328125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
       <c r="E2" s="4">
